--- a/random audio clips model/Dataset/Youtube Speech Dataset/dataset info.xlsx
+++ b/random audio clips model/Dataset/Youtube Speech Dataset/dataset info.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thivakkarmahendran/Documents/Sudhan/College/Grad school/Fall 2020/CS 682/CS-682-Final-Project/random audio clips model/Dataset/Youtube Speech Dataset/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808FD37-3A29-A148-8383-BB0B5043BFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Table 1</t>
   </si>
@@ -29,268 +38,352 @@
   </si>
   <si>
     <t>How to evaluate expressions with two variables | 6th grade</t>
+  </si>
+  <si>
+    <t>Khan Academy</t>
+  </si>
+  <si>
+    <t>2020 Rock &amp; Roll Hall of Fame Induction Ceremony Acceptance Speech Trent Reznor for Nine Inch Nails</t>
+  </si>
+  <si>
+    <t>Rock &amp; Roll Hall of Fame</t>
+  </si>
+  <si>
+    <t>A look at U.S. President-elect Joe Biden’s victory speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTV News </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplying Two Binomials Using Box Method - Math Tutorial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brian McLogan </t>
+  </si>
+  <si>
+    <t>Math Center Video Tutorial</t>
+  </si>
+  <si>
+    <t>The Autism Helper</t>
+  </si>
+  <si>
+    <t>Learn Graspable Math: Solving Equations</t>
+  </si>
+  <si>
+    <t>Graspable Math</t>
+  </si>
+  <si>
+    <t>How to find the mode in a data set math tutorial, 4th to 7th grades</t>
+  </si>
+  <si>
+    <t>Jude KidsMathTV</t>
+  </si>
+  <si>
+    <t>Guaranteach Math Tutorial: Constructing a Factor Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guaranteach</t>
+  </si>
+  <si>
+    <t>Open Office Math</t>
+  </si>
+  <si>
+    <t>bthomp2112</t>
+  </si>
+  <si>
+    <t>Distance Formula - How to Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mario's Math Tutoring</t>
+  </si>
+  <si>
+    <t>Basic Math Tutorial - 10 - Find the Missing Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thenewboston</t>
+  </si>
+  <si>
+    <t>How Online Math Tutoring via Skype Works</t>
+  </si>
+  <si>
+    <t>devinhenson1</t>
+  </si>
+  <si>
+    <t>Math Tutorial - Power Reduction Formula for cos^2 (x)</t>
+  </si>
+  <si>
+    <t>Hun Kim</t>
+  </si>
+  <si>
+    <t>Simple Math Tutorial: How to Calculate the Area of a Parallelogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NinetyEast</t>
+  </si>
+  <si>
+    <t>Plotting coordinate graphs on graph paper math tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jude KidsMathTV</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sw6CHp2NsEU</t>
+  </si>
+  <si>
+    <t>How to Do an Informative Speech in Five Minutes : Teacher &amp; Student Communication</t>
+  </si>
+  <si>
+    <t>eHow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nkh5y4R_RD0</t>
+  </si>
+  <si>
+    <t>How to become Silten?</t>
+  </si>
+  <si>
+    <t>Sadhguru</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YobUE6VvE18</t>
+  </si>
+  <si>
+    <t>Preply Tutor Introduction Video</t>
+  </si>
+  <si>
+    <t>Héloïse</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VxW5D5VPg_0</t>
+  </si>
+  <si>
+    <t>Michelle Obama's Best Advice For Students | How To Succeed In Life</t>
+  </si>
+  <si>
+    <t>The Outcome</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YLkOZhROvA4</t>
+  </si>
+  <si>
+    <t>How to Get Stuff Done When You Have ADHD</t>
+  </si>
+  <si>
+    <t>How to ADHD</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sQuM5e0QGLg</t>
+  </si>
+  <si>
+    <t>We Are All Different - and THAT'S AWESOME! | Cole Blakeway | TEDxWestVancouverED</t>
+  </si>
+  <si>
+    <t>TEDx Talks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_qtpmi4yzSs</t>
+  </si>
+  <si>
+    <t>Respecting the differences between people | Mariana Chartier | TEDxYouth@BSCR</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XC7BbivdGzI</t>
+  </si>
+  <si>
+    <t>Best tamil Motivational Speech | Motivational videos in tamil | 3 mins motiva</t>
+  </si>
+  <si>
+    <t>Ivin Austan</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=S_OX3ByvBSc</t>
     </r>
   </si>
   <si>
-    <t>Khan Academy</t>
-  </si>
-  <si>
-    <t>2020 Rock &amp; Roll Hall of Fame Induction Ceremony Acceptance Speech Trent Reznor for Nine Inch Nails</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=r43RT5APLWo</t>
     </r>
   </si>
   <si>
-    <t>Rock &amp; Roll Hall of Fame</t>
-  </si>
-  <si>
-    <t>A look at U.S. President-elect Joe Biden’s victory speech</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=2DZOnKoMQrY</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> CTV News </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplying Two Binomials Using Box Method - Math Tutorial </t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=qj6JndniYBQ</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Brian McLogan </t>
-  </si>
-  <si>
-    <t>Math Center Video Tutorial</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=5B78tolRWvI</t>
     </r>
   </si>
   <si>
-    <t>The Autism Helper</t>
-  </si>
-  <si>
-    <t>Learn Graspable Math: Solving Equations</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=2AJJIXmD_RI</t>
     </r>
   </si>
   <si>
-    <t>Graspable Math</t>
-  </si>
-  <si>
-    <t>How to find the mode in a data set math tutorial, 4th to 7th grades</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=z_zgYW2ar0w</t>
     </r>
   </si>
   <si>
-    <t>Jude KidsMathTV</t>
-  </si>
-  <si>
-    <t>Guaranteach Math Tutorial: Constructing a Factor Tree</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=7k-uzBdydtI</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Guaranteach</t>
-  </si>
-  <si>
-    <t>Open Office Math</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=6LbMFTZHrXY</t>
     </r>
   </si>
   <si>
-    <t>bthomp2112</t>
-  </si>
-  <si>
-    <t>Distance Formula - How to Use</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=Mvnt0BPzfL8</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Mario's Math Tutoring</t>
-  </si>
-  <si>
-    <t>Basic Math Tutorial - 10 - Find the Missing Side</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=dleTDjWNCC4</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> thenewboston</t>
-  </si>
-  <si>
-    <t>How Online Math Tutoring via Skype Works</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=oYUab3sjLJM</t>
     </r>
   </si>
   <si>
-    <t>devinhenson1</t>
-  </si>
-  <si>
-    <t>Math Tutorial - Power Reduction Formula for cos^2 (x)</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=ByxqeCPgitA</t>
     </r>
   </si>
   <si>
-    <t>Hun Kim</t>
-  </si>
-  <si>
-    <t>Simple Math Tutorial: How to Calculate the Area of a Parallelogram</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=UFW7bbCfGzs</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> NinetyEast</t>
-  </si>
-  <si>
-    <t>Plotting coordinate graphs on graph paper math tutorial</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
+        <u/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=hcAnVifUGFY</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Jude KidsMathTV</t>
+    <t>MAHEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -300,21 +393,24 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
+      <u/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +427,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,54 +551,71 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -507,26 +626,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -725,7 +903,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -744,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,9 +1173,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1014,7 +1198,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1033,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,9 +1464,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1296,7 +1486,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1315,7 +1505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,7 +1535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1371,7 +1561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,7 +1613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,7 +1639,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1475,7 +1665,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1501,7 +1691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1527,7 +1717,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,7 +1743,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1566,35 +1756,46 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.40625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.4375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="102.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -1605,17 +1806,17 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4"/>
@@ -1623,299 +1824,537 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>7</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" ht="32.05" customHeight="1">
+    <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="13">
-        <v>10</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="13">
-        <v>13</v>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="13">
-        <v>16</v>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="13">
-        <v>19</v>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="13">
-        <v>22</v>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" ht="32.05" customHeight="1">
+    <row r="9" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s" s="13">
-        <v>25</v>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s" s="13">
-        <v>28</v>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s" s="13">
-        <v>31</v>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" ht="32.05" customHeight="1">
+    <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s" s="13">
-        <v>34</v>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s" s="13">
-        <v>37</v>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s" s="13">
-        <v>40</v>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s" s="13">
-        <v>43</v>
+      <c r="B15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" ht="32.05" customHeight="1">
+    <row r="16" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s" s="13">
-        <v>46</v>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
+    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="11">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s" s="12">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s" s="13">
-        <v>49</v>
+      <c r="B17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>21</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>36</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>37</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10">
+        <v>39</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>40</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>41</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
+        <v>42</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="https://www.youtube.com/watch?v=S_OX3ByvBSc"/>
-    <hyperlink ref="C4" r:id="rId2" location="" tooltip="" display="https://www.youtube.com/watch?v=r43RT5APLWo"/>
-    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display="https://www.youtube.com/watch?v=2DZOnKoMQrY"/>
-    <hyperlink ref="C6" r:id="rId4" location="" tooltip="" display="https://www.youtube.com/watch?v=qj6JndniYBQ"/>
-    <hyperlink ref="C7" r:id="rId5" location="" tooltip="" display="https://www.youtube.com/watch?v=5B78tolRWvI"/>
-    <hyperlink ref="C8" r:id="rId6" location="" tooltip="" display="https://www.youtube.com/watch?v=2AJJIXmD_RI"/>
-    <hyperlink ref="C9" r:id="rId7" location="" tooltip="" display="https://www.youtube.com/watch?v=z_zgYW2ar0w"/>
-    <hyperlink ref="C10" r:id="rId8" location="" tooltip="" display="https://www.youtube.com/watch?v=7k-uzBdydtI"/>
-    <hyperlink ref="C11" r:id="rId9" location="" tooltip="" display="https://www.youtube.com/watch?v=6LbMFTZHrXY"/>
-    <hyperlink ref="C12" r:id="rId10" location="" tooltip="" display="https://www.youtube.com/watch?v=Mvnt0BPzfL8"/>
-    <hyperlink ref="C13" r:id="rId11" location="" tooltip="" display="https://www.youtube.com/watch?v=dleTDjWNCC4"/>
-    <hyperlink ref="C14" r:id="rId12" location="" tooltip="" display="https://www.youtube.com/watch?v=oYUab3sjLJM"/>
-    <hyperlink ref="C15" r:id="rId13" location="" tooltip="" display="https://www.youtube.com/watch?v=ByxqeCPgitA"/>
-    <hyperlink ref="C16" r:id="rId14" location="" tooltip="" display="https://www.youtube.com/watch?v=UFW7bbCfGzs"/>
-    <hyperlink ref="C17" r:id="rId15" location="" tooltip="" display="https://www.youtube.com/watch?v=hcAnVifUGFY"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/random audio clips model/Dataset/Youtube Speech Dataset/dataset info.xlsx
+++ b/random audio clips model/Dataset/Youtube Speech Dataset/dataset info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thivakkarmahendran/Documents/Sudhan/College/Grad school/Fall 2020/CS 682/CS-682-Final-Project/random audio clips model/Dataset/Youtube Speech Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808FD37-3A29-A148-8383-BB0B5043BFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F3997-6D81-434C-80EA-652B9AB49A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,9 +562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -617,6 +614,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,10 +1778,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1795,542 +1795,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>36</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>37</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>39</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>40</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>41</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>42</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
